--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/ed-EDA9-2018-1-members-and-hierarchies.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/ed-EDA9-2018-1-members-and-hierarchies.xlsx
@@ -96,7 +96,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -187,7 +187,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2ed27bd1-68a6-4724-bccb-46943652c845</t>
+          <t>54afa059-9b2e-4ae8-b566-f001a23f4e21</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
